--- a/biology/Zoologie/Bravoceratops/Bravoceratops.xlsx
+++ b/biology/Zoologie/Bravoceratops/Bravoceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bravoceratops est un genre de dinosaure cératopsien du Crétacé supérieur retrouvé au Texas (États-Unis). Selon Paleobiology Database, en 2022, le genre est monotypique et la seule espèce référencée est Bravoceratops polyphemus.
 </t>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce-type, Bravoceratops polyphemus, a été nommée et décrite par Steven L. Wick et Thomas M. Lehman en 2013[1]. 
-Le nom générique signifie « visage (ou face) à cornes du Rio Bravo » et provient du nom mexicain Rio Bravo del Norte conjugué avec les mots grecs keras (κέρας, « corne ») et ops ὤψ, « visage (ou face) »[2]. Le nom spécifique polyphemus réfère au cyclope géant Polyphème.
-Le genre est basé sur l'holotype TMM 46015-1, constitué de fossiles retrouvés dans une strate datée du début du Maastrichtien[3] de la formation géologique de Javelina (en). Il est rare de retrouver dans cette dernière des restes de cératopsiens.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce-type, Bravoceratops polyphemus, a été nommée et décrite par Steven L. Wick et Thomas M. Lehman en 2013. 
+Le nom générique signifie « visage (ou face) à cornes du Rio Bravo » et provient du nom mexicain Rio Bravo del Norte conjugué avec les mots grecs keras (κέρας, « corne ») et ops ὤψ, « visage (ou face) ». Le nom spécifique polyphemus réfère au cyclope géant Polyphème.
+Le genre est basé sur l'holotype TMM 46015-1, constitué de fossiles retrouvés dans une strate datée du début du Maastrichtien de la formation géologique de Javelina (en). Il est rare de retrouver dans cette dernière des restes de cératopsiens.
 Bravoceratops fait partie des plus grands Chasmosaurinae, d'une dimension comparable au Torosaurus et au Triceratops. Il pourrait former un groupe frère avec Coahuilaceratops.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Cladogramme Ceratopsidae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme des Ceratopsidae ci-dessous présente les résultats des analyses phylogénétiques de Dalman, Jasinski, &amp; Lucas en 2022[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme des Ceratopsidae ci-dessous présente les résultats des analyses phylogénétiques de Dalman, Jasinski, &amp; Lucas en 2022,.
 </t>
         </is>
       </c>
